--- a/bill-of-materials.xlsx
+++ b/bill-of-materials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\carbonaigit\cave-tagging-tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personalgit\cave-tag-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9BA32F-4FED-43DE-8E80-C1D77D931984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C41C9-7090-4AC0-93A3-B388B6DA19C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="367" yWindow="367" windowWidth="22046" windowHeight="13413" xr2:uid="{8BF4C00E-E00A-4CCA-8274-A0B8C2B683C6}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BF4C00E-E00A-4CCA-8274-A0B8C2B683C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -80,15 +80,9 @@
     <t>Case, 8.27x5.91x1.46"</t>
   </si>
   <si>
-    <t>cutmyparts.ca</t>
-  </si>
-  <si>
     <t>Tags, PKG 40</t>
   </si>
   <si>
-    <t>https://www.cutmyparts.ca/</t>
-  </si>
-  <si>
     <t>https://www.rona.ca/en/product/cobra-plastic-screw-anchors-6-1-in-l-100-per-pack-white-screws-sold-separately-187m-0484172</t>
   </si>
   <si>
@@ -156,6 +150,12 @@
   </si>
   <si>
     <t>B0F8VLXYFV</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>https://jlccnc.com/</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -243,6 +243,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -578,23 +581,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933BCC2D-583E-45D9-81CB-D40186C64CA5}">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.8203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.29296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.76171875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.52734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.76171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.52734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.41015625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.234375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.46875" style="1" customWidth="1"/>
     <col min="7" max="8" width="8.9375" style="1"/>
-    <col min="9" max="9" width="12.234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.76171875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.52734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="61.05859375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.9375" style="1"/>
   </cols>
   <sheetData>
@@ -650,7 +653,7 @@
         <v>32.99</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.5">
@@ -676,50 +679,50 @@
         <v>13.79</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>74.13</v>
+        <v>23.03</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="2">
         <f>H5*G5</f>
-        <v>74.13</v>
+        <v>23.03</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2">
         <v>7.19</v>
@@ -732,17 +735,17 @@
         <v>7.19</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>8785347</v>
@@ -758,17 +761,17 @@
         <v>6.99</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>8785362</v>
@@ -784,66 +787,90 @@
         <v>22.99</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="1">
+        <v>47.16</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>47.16</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2">
+        <v>78.05</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>78.05</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>47.9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -851,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2">
         <v>9.59</v>
@@ -864,12 +891,12 @@
         <v>9.59</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -877,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2">
         <v>13.59</v>
@@ -890,71 +917,33 @@
         <v>13.59</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="I18" s="1">
-        <f>SUM(I3:I17)</f>
-        <v>181.26000000000002</v>
+      <c r="H14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="2">
+        <f>SUM(I3:I13)</f>
+        <v>303.26999999999992</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{2D60A72A-54FC-414E-9BE0-4C013709DAE2}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{88E178DE-BA80-4D81-9E17-A73578B2869F}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{0BD7A835-B486-4B38-B114-C0703F7CC1F1}"/>
-    <hyperlink ref="J7" r:id="rId4" xr:uid="{67BD62BD-EA89-42E4-8A68-A2F666ED7BEF}"/>
-    <hyperlink ref="J8" r:id="rId5" xr:uid="{C58908E2-9915-4C56-A73A-B14947074761}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{11EB1ABF-FE26-4367-8F8A-023A5E2615D7}"/>
-    <hyperlink ref="J13" r:id="rId7" xr:uid="{CFA2064E-F8CF-4091-81BB-F535E33BC31C}"/>
-    <hyperlink ref="J3" r:id="rId8" xr:uid="{6792AC0A-016F-4FC6-A4A2-10E1B1A5775C}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{0BD7A835-B486-4B38-B114-C0703F7CC1F1}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{67BD62BD-EA89-42E4-8A68-A2F666ED7BEF}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{C58908E2-9915-4C56-A73A-B14947074761}"/>
+    <hyperlink ref="J12" r:id="rId5" xr:uid="{11EB1ABF-FE26-4367-8F8A-023A5E2615D7}"/>
+    <hyperlink ref="J13" r:id="rId6" xr:uid="{CFA2064E-F8CF-4091-81BB-F535E33BC31C}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{6792AC0A-016F-4FC6-A4A2-10E1B1A5775C}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{6B7FC653-2D9C-4141-9FB7-783180DA6727}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{2BB5D2D7-55D6-4C37-87D5-E31CF4E1E138}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{D367DA30-5474-4BF3-8BD1-08A79601CC98}"/>
+    <hyperlink ref="J5" r:id="rId11" xr:uid="{4A253394-0AB9-4188-8ADC-2D9F17FF8E93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>